--- a/medicine/Soins infirmiers et profession infirmière/Mode_fonctionnel_de_santé/Mode_fonctionnel_de_santé.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Mode_fonctionnel_de_santé/Mode_fonctionnel_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mode_fonctionnel_de_sant%C3%A9</t>
+          <t>Mode_fonctionnel_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mode fonctionnel de santé est un concept utilisé en soins infirmiers. Le mode fonctionnel de santé peut désigner une fonction physiologique, une fonction sociale, un mode de fonctionnement social ou un système d'organes dans le contexte de système structurel.
 Ensemble, les modes fonctionnels de santé représentent une grille et proposent la taxinomie des réactions humaines organisées au sein de onze sous-groupes.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mode_fonctionnel_de_sant%C3%A9</t>
+          <t>Mode_fonctionnel_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Classification des modes fonctionnels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Perception et gestion de la santé
 Nutrition et métabolisme
